--- a/assets/excel/2024_1-2-1.xlsx
+++ b/assets/excel/2024_1-2-1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADA4A23-32DB-4D4A-BB7C-C27BAF8F52BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A41C8B-4A9E-4E7D-9F87-C20E30AADE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1184D1F8-1B77-4084-A8B5-1EB9A866C132}"/>
   </bookViews>
@@ -431,34 +431,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -523,9 +499,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,6 +517,33 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -864,9 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588CD942-8197-427F-BFA5-5C2440736594}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -892,3692 +893,3692 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="6"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="41"/>
     </row>
     <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="3">
         <v>2005</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>2006</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>2007</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>2008</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="3">
         <v>2009</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>2010</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>2011</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="3">
         <v>2012</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="3">
         <v>2013</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="3">
         <v>2014</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="3">
         <v>2015</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="3">
         <v>2016</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="3">
         <v>2017</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="3">
         <v>2018</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="3">
         <v>2019</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="3">
         <v>2020</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="3">
         <v>2021</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="3">
         <v>2022</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="4">
         <v>2023</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="6"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="41"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="5">
         <v>4</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="6">
         <v>6</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="6">
         <v>8</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="6">
         <v>9</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="5">
         <v>10</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="6">
         <v>11</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="6">
         <v>12</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="5">
         <v>13</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="6">
         <v>14</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="6">
         <v>15</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="5">
         <v>16</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="6">
         <v>17</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="6">
         <v>18</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="6">
         <v>19</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="7">
         <v>101</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="9">
         <v>20275</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="9">
         <v>20282</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="9">
         <v>19875</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="9">
         <v>19402</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="9">
         <v>19399</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="9">
         <v>19660</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="9">
         <v>20214</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="9">
         <v>20820</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="9">
         <v>22122</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="9">
         <v>23055</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="9">
         <v>26108</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="10">
         <v>28200</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="11">
         <v>28420</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="12">
         <v>29730</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="12">
         <v>31445</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="12">
         <v>30950</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="12">
         <v>31265</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="12">
         <v>36035</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="12">
         <v>36655</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="7">
         <v>102</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="9">
         <v>10721</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="9">
         <v>10474</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="9">
         <v>10224</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="9">
         <v>10191</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="9">
         <v>10062</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="9">
         <v>9810</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="9">
         <v>9804</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="9">
         <v>9918</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="9">
         <v>10596</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="9">
         <v>11620</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="9">
         <v>13554</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="10">
         <v>16885</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="11">
         <v>18835</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="12">
         <v>19850</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="12">
         <v>20175</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="12">
         <v>20785</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="12">
         <v>21720</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="12">
         <v>23545</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="12">
         <v>24930</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="7">
         <v>103</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <v>11986</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="9">
         <v>11941</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="9">
         <v>11772</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="9">
         <v>11824</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="9">
         <v>11796</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="9">
         <v>11804</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="9">
         <v>12080</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="9">
         <v>12680</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>14017</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="9">
         <v>15224</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="9">
         <v>16966</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="10">
         <v>17770</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="11">
         <v>18420</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="12">
         <v>19325</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="12">
         <v>20160</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="12">
         <v>20265</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="12">
         <v>20990</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="12">
         <v>23965</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="12">
         <v>25290</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="7">
         <v>151</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="9">
         <v>7612</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="9">
         <v>7371</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="9">
         <v>7223</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="9">
         <v>7038</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="9">
         <v>7058</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="9">
         <v>7024</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="9">
         <v>7135</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="9">
         <v>7552</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="9">
         <v>7991</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="9">
         <v>8866</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="9">
         <v>9857</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="10">
         <v>10840</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="11">
         <v>11140</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="12">
         <v>11810</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="12">
         <v>12330</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="12">
         <v>12955</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="12">
         <v>13625</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="12">
         <v>16085</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="12">
         <v>17720</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="7">
         <v>153</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="9">
         <v>7506</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="9">
         <v>7325</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="9">
         <v>7231</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="9">
         <v>7086</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="9">
         <v>7041</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="9">
         <v>6980</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="9">
         <v>7059</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="9">
         <v>7419</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="9">
         <v>7947</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="9">
         <v>8634</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="9">
         <v>10620</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="10">
         <v>11745</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="11">
         <v>12780</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="12">
         <v>13455</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="12">
         <v>14020</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="12">
         <v>13830</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="12">
         <v>13915</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="12">
         <v>16355</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="12">
         <v>17275</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="7">
         <v>154</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="9">
         <v>3648</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="9">
         <v>3620</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="9">
         <v>3498</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="9">
         <v>3392</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="9">
         <v>3352</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="9">
         <v>3365</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="9">
         <v>3394</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="9">
         <v>3404</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="9">
         <v>3682</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="9">
         <v>4100</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="9">
         <v>5221</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="10">
         <v>6230</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="11">
         <v>6415</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="12">
         <v>6485</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="12">
         <v>6535</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="12">
         <v>6760</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="12">
         <v>7070</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="12">
         <v>8795</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="12">
         <v>9350</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="7">
         <v>155</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="9">
         <v>5806</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="9">
         <v>5607</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="9">
         <v>5438</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="9">
         <v>5213</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="9">
         <v>5115</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="9">
         <v>5093</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="9">
         <v>5094</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="9">
         <v>5113</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="9">
         <v>5406</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="9">
         <v>5924</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="9">
         <v>7164</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="10">
         <v>8245</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="11">
         <v>8440</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="12">
         <v>8805</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="12">
         <v>9225</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="12">
         <v>9310</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="12">
         <v>9585</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="12">
         <v>12645</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="12">
         <v>13190</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="B17" s="7">
         <v>157</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="9">
         <v>6834</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="9">
         <v>6676</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="9">
         <v>6488</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="9">
         <v>6382</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="9">
         <v>6401</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="9">
         <v>6373</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="9">
         <v>6369</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="9">
         <v>6508</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="9">
         <v>6874</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="9">
         <v>7401</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="9">
         <v>9059</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="10">
         <v>9910</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="11">
         <v>10415</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="12">
         <v>11035</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="12">
         <v>11340</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="12">
         <v>11985</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="12">
         <v>12765</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="12">
         <v>15095</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="12">
         <v>15905</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="7">
         <v>158</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="9">
         <v>4886</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="9">
         <v>4660</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="9">
         <v>4529</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="9">
         <v>4489</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="9">
         <v>4392</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="9">
         <v>4440</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="9">
         <v>4509</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="9">
         <v>4690</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="9">
         <v>5051</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="9">
         <v>5432</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="9">
         <v>6675</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="10">
         <v>7290</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="11">
         <v>7345</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="12">
         <v>7515</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="12">
         <v>7675</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="12">
         <v>7860</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="12">
         <v>8110</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="12">
         <v>10115</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="12">
         <v>11100</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="7">
         <v>159</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="9">
         <v>20262</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="9">
         <v>19719</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="9">
         <v>19098</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="9">
         <v>18578</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="9">
         <v>18869</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="9">
         <v>18518</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="9">
         <v>18911</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="9">
         <v>19708</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="9">
         <v>20862</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="9">
         <v>22278</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="9">
         <v>25709</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="10">
         <v>28035</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="11">
         <v>28955</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="12">
         <v>30170</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="12">
         <v>32090</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="12">
         <v>32265</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="12">
         <v>33150</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="12">
         <v>38485</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="12">
         <v>40725</v>
       </c>
     </row>
-    <row r="20" spans="2:22" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+    <row r="20" spans="2:22" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="14">
         <v>99536</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="14">
         <v>97675</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="14">
         <v>95376</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="14">
         <v>93595</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="14">
         <v>93485</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="14">
         <v>93067</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="14">
         <v>94569</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="14">
         <v>97812</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="14">
         <v>104548</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="14">
         <v>112534</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="14">
         <v>130933</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="15">
         <v>145155</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="16">
         <v>151170</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="17">
         <v>158180</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="17">
         <v>165000</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="17">
         <v>166960</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="17">
         <v>172190</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="17">
         <v>201120</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="17">
         <v>212145</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="B21" s="7">
         <v>241</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="9">
         <v>115165</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="9">
         <v>115063</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="9">
         <v>114709</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="9">
         <v>112514</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="9">
         <v>111911</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="9">
         <v>112021</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="9">
         <v>115062</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="9">
         <v>119366</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="9">
         <v>126962</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="9">
         <v>136533</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="9">
         <v>154696</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="10">
         <v>168735</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="11">
         <v>175170</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="12">
         <v>181570</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="12">
         <v>185310</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="12">
         <v>185675</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="12">
         <v>196980</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="12">
         <v>226995</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="12">
         <v>223200</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="7">
         <v>241001</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="9">
         <v>75016</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="9">
         <v>74898</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="9">
         <v>74977</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="9">
         <v>74111</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="9">
         <v>73483</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="9">
         <v>73448</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="9">
         <v>75793</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="9">
         <v>78442</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="9">
         <v>82727</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="9">
         <v>88541</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="9">
         <v>97357</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="10">
         <v>104465</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="11">
         <v>107965</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="12">
         <v>111255</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="12">
         <v>113440</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="12">
         <v>112125</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="12">
         <v>115925</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="12">
         <v>127235</v>
       </c>
-      <c r="V22" s="20">
+      <c r="V22" s="12">
         <v>132115</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="7">
         <v>241999</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="9">
         <v>40149</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="9">
         <v>40165</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="9">
         <v>39732</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="9">
         <v>38403</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="9">
         <v>38428</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="9">
         <v>38573</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="9">
         <v>39269</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="9">
         <v>40924</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="9">
         <v>44235</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="9">
         <v>47992</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="9">
         <v>57339</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="10">
         <v>64270</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="11">
         <v>67205</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="12">
         <v>70315</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="12">
         <v>71870</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="12">
         <v>73550</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="12">
         <v>81055</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="12">
         <v>99760</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V23" s="12">
         <v>91085</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+      <c r="B24" s="7">
         <v>251</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="9">
         <v>8256</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="9">
         <v>8139</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="9">
         <v>8229</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="9">
         <v>8105</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="9">
         <v>8099</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="9">
         <v>8183</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="9">
         <v>8386</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="9">
         <v>9184</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="9">
         <v>10761</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="9">
         <v>11631</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="9">
         <v>13826</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="10">
         <v>15540</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="11">
         <v>16065</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="12">
         <v>17565</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="12">
         <v>18545</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="12">
         <v>19395</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="12">
         <v>20590</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="12">
         <v>23935</v>
       </c>
-      <c r="V24" s="20">
+      <c r="V24" s="12">
         <v>25330</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="B25" s="7">
         <v>252</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="9">
         <v>11014</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="9">
         <v>10617</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="9">
         <v>10381</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="9">
         <v>10213</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="9">
         <v>10154</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="9">
         <v>10394</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="9">
         <v>10319</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="9">
         <v>10342</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="9">
         <v>10719</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="9">
         <v>11665</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="9">
         <v>13461</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="10">
         <v>15065</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="11">
         <v>15795</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="12">
         <v>16535</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="12">
         <v>16910</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="12">
         <v>17460</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="12">
         <v>18305</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="12">
         <v>21250</v>
       </c>
-      <c r="V25" s="20">
+      <c r="V25" s="12">
         <v>22210</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="7">
         <v>254</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="9">
         <v>14631</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="9">
         <v>14237</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="9">
         <v>13889</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="9">
         <v>13669</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="9">
         <v>13466</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="9">
         <v>13637</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="9">
         <v>13859</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="9">
         <v>14417</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="9">
         <v>15353</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="9">
         <v>16412</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="9">
         <v>19567</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="10">
         <v>21915</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="11">
         <v>22775</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="12">
         <v>24090</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="12">
         <v>24995</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="12">
         <v>25525</v>
       </c>
-      <c r="T26" s="20">
+      <c r="T26" s="12">
         <v>26280</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="12">
         <v>31840</v>
       </c>
-      <c r="V26" s="20">
+      <c r="V26" s="12">
         <v>33520</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+      <c r="B27" s="7">
         <v>255</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="9">
         <v>3433</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="9">
         <v>3274</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="9">
         <v>3213</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="9">
         <v>3109</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="9">
         <v>3033</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="9">
         <v>3063</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="9">
         <v>3100</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="9">
         <v>3072</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="9">
         <v>3094</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="9">
         <v>3131</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="9">
         <v>3855</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="10">
         <v>4300</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="11">
         <v>4350</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="12">
         <v>4330</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="12">
         <v>4275</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="12">
         <v>4490</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="12">
         <v>4755</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="12">
         <v>6095</v>
       </c>
-      <c r="V27" s="20">
+      <c r="V27" s="12">
         <v>6580</v>
       </c>
     </row>
     <row r="28" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+      <c r="B28" s="7">
         <v>256</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="9">
         <v>5488</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="9">
         <v>5402</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="9">
         <v>5316</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="9">
         <v>5301</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="9">
         <v>5184</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="9">
         <v>5160</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="9">
         <v>5252</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="9">
         <v>5374</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="9">
         <v>5829</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="9">
         <v>6299</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="9">
         <v>7452</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="10">
         <v>9380</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="11">
         <v>10010</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="12">
         <v>10430</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="12">
         <v>10345</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S28" s="12">
         <v>10560</v>
       </c>
-      <c r="T28" s="20">
+      <c r="T28" s="12">
         <v>11150</v>
       </c>
-      <c r="U28" s="20">
+      <c r="U28" s="12">
         <v>13530</v>
       </c>
-      <c r="V28" s="20">
+      <c r="V28" s="12">
         <v>14445</v>
       </c>
     </row>
-    <row r="29" spans="2:22" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="15">
+    <row r="29" spans="2:22" s="19" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
         <v>257</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="9">
         <v>9608</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="9">
         <v>9138</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="9">
         <v>8895</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="9">
         <v>8498</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="9">
         <v>8456</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="9">
         <v>8342</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="9">
         <v>8341</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="9">
         <v>8491</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="9">
         <v>8854</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="9">
         <v>9526</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="9">
         <v>10716</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="10">
         <v>12600</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="11">
         <v>13545</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="12">
         <v>13985</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="12">
         <v>14255</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="12">
         <v>14755</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="12">
         <v>14965</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U29" s="12">
         <v>17700</v>
       </c>
-      <c r="V29" s="20">
+      <c r="V29" s="12">
         <v>18900</v>
       </c>
     </row>
-    <row r="30" spans="2:22" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+    <row r="30" spans="2:22" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
         <v>2</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="14">
         <v>167595</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="14">
         <v>165870</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="14">
         <v>164632</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="14">
         <v>161409</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="14">
         <v>160303</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="14">
         <v>160800</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="14">
         <v>164319</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="14">
         <v>170246</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="14">
         <v>181572</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="14">
         <v>195197</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="14">
         <v>223573</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="15">
         <v>247535</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="16">
         <v>257705</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="17">
         <v>268505</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="17">
         <v>274635</v>
       </c>
-      <c r="S30" s="25">
+      <c r="S30" s="17">
         <v>277860</v>
       </c>
-      <c r="T30" s="25">
+      <c r="T30" s="17">
         <v>293030</v>
       </c>
-      <c r="U30" s="25">
+      <c r="U30" s="17">
         <v>341345</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="17">
         <v>344185</v>
       </c>
     </row>
     <row r="31" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
+      <c r="B31" s="7">
         <v>351</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="9">
         <v>7805</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="9">
         <v>7594</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="9">
         <v>7394</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="9">
         <v>7449</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="9">
         <v>7472</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="9">
         <v>7584</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="9">
         <v>7689</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="9">
         <v>7959</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="9">
         <v>8519</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="9">
         <v>9503</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="9">
         <v>10974</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="10">
         <v>12675</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P31" s="11">
         <v>13430</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="12">
         <v>14130</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="12">
         <v>14330</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="12">
         <v>14300</v>
       </c>
-      <c r="T31" s="20">
+      <c r="T31" s="12">
         <v>14805</v>
       </c>
-      <c r="U31" s="20">
+      <c r="U31" s="12">
         <v>17445</v>
       </c>
-      <c r="V31" s="20">
+      <c r="V31" s="12">
         <v>18540</v>
       </c>
     </row>
     <row r="32" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
+      <c r="B32" s="7">
         <v>352</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="9">
         <v>8730</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="9">
         <v>8486</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="9">
         <v>8328</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="9">
         <v>8238</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="9">
         <v>8184</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="9">
         <v>8131</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="9">
         <v>8134</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="9">
         <v>8167</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="9">
         <v>8660</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="9">
         <v>9787</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="9">
         <v>11863</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="10">
         <v>13215</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="11">
         <v>13215</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="12">
         <v>13335</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="12">
         <v>13345</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="12">
         <v>13410</v>
       </c>
-      <c r="T32" s="20">
+      <c r="T32" s="12">
         <v>13655</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U32" s="12">
         <v>16310</v>
       </c>
-      <c r="V32" s="20">
+      <c r="V32" s="12">
         <v>17310</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="B33" s="7">
         <v>353</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="9">
         <v>11011</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="9">
         <v>10667</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="9">
         <v>10514</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="9">
         <v>10670</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="9">
         <v>10975</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="9">
         <v>11183</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="9">
         <v>11025</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="9">
         <v>11307</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="9">
         <v>11651</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="9">
         <v>12035</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="9">
         <v>13092</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="10">
         <v>16015</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="11">
         <v>17475</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q33" s="12">
         <v>18930</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="12">
         <v>21285</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S33" s="12">
         <v>22685</v>
       </c>
-      <c r="T33" s="20">
+      <c r="T33" s="12">
         <v>24960</v>
       </c>
-      <c r="U33" s="20">
+      <c r="U33" s="12">
         <v>29315</v>
       </c>
-      <c r="V33" s="20">
+      <c r="V33" s="12">
         <v>31005</v>
       </c>
     </row>
     <row r="34" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="B34" s="7">
         <v>354</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="9">
         <v>1273</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="9">
         <v>1267</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="9">
         <v>1301</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="9">
         <v>1372</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="9">
         <v>1464</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="9">
         <v>1487</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="9">
         <v>1456</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="9">
         <v>1601</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="9">
         <v>1882</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="9">
         <v>2244</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="9">
         <v>2767</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="10">
         <v>2825</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="11">
         <v>2585</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q34" s="12">
         <v>2665</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="12">
         <v>2785</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="12">
         <v>2900</v>
       </c>
-      <c r="T34" s="20">
+      <c r="T34" s="12">
         <v>3010</v>
       </c>
-      <c r="U34" s="20">
+      <c r="U34" s="12">
         <v>3755</v>
       </c>
-      <c r="V34" s="20">
+      <c r="V34" s="12">
         <v>3910</v>
       </c>
     </row>
     <row r="35" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+      <c r="B35" s="7">
         <v>355</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="9">
         <v>6903</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="9">
         <v>6746</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="9">
         <v>6556</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="9">
         <v>6390</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="9">
         <v>6394</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="9">
         <v>6385</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="9">
         <v>6645</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="9">
         <v>6993</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="9">
         <v>7514</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="9">
         <v>8364</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="9">
         <v>9418</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="10">
         <v>11800</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="11">
         <v>12105</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="12">
         <v>12760</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="12">
         <v>13120</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="12">
         <v>13095</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="12">
         <v>13480</v>
       </c>
-      <c r="U35" s="20">
+      <c r="U35" s="12">
         <v>16100</v>
       </c>
-      <c r="V35" s="20">
+      <c r="V35" s="12">
         <v>16965</v>
       </c>
     </row>
     <row r="36" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
+      <c r="B36" s="7">
         <v>356</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="9">
         <v>3984</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="9">
         <v>3951</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="9">
         <v>3915</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="9">
         <v>3854</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="9">
         <v>3793</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="9">
         <v>3766</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="9">
         <v>3961</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="9">
         <v>4181</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="9">
         <v>4489</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="9">
         <v>5090</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="9">
         <v>6083</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="10">
         <v>6210</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="11">
         <v>6360</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q36" s="12">
         <v>6560</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="12">
         <v>6715</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="12">
         <v>6980</v>
       </c>
-      <c r="T36" s="20">
+      <c r="T36" s="12">
         <v>7280</v>
       </c>
-      <c r="U36" s="20">
+      <c r="U36" s="12">
         <v>9165</v>
       </c>
-      <c r="V36" s="20">
+      <c r="V36" s="12">
         <v>9655</v>
       </c>
     </row>
     <row r="37" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
+      <c r="B37" s="7">
         <v>357</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="9">
         <v>6581</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="9">
         <v>6516</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="9">
         <v>6495</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="9">
         <v>6402</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="9">
         <v>6292</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="9">
         <v>6172</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="9">
         <v>6347</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="9">
         <v>6657</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="9">
         <v>7204</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="9">
         <v>7962</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="9">
         <v>9727</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="10">
         <v>10720</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="11">
         <v>10845</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q37" s="12">
         <v>11145</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="12">
         <v>11585</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="12">
         <v>12055</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T37" s="12">
         <v>12590</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U37" s="12">
         <v>15260</v>
       </c>
-      <c r="V37" s="20">
+      <c r="V37" s="12">
         <v>16750</v>
       </c>
     </row>
     <row r="38" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="B38" s="7">
         <v>358</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="9">
         <v>5949</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="9">
         <v>5987</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="9">
         <v>5929</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="9">
         <v>5739</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="9">
         <v>5804</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="9">
         <v>5915</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="9">
         <v>5996</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="9">
         <v>6350</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="9">
         <v>7260</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="9">
         <v>7825</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="9">
         <v>9386</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="10">
         <v>11140</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="11">
         <v>10920</v>
       </c>
-      <c r="Q38" s="20">
+      <c r="Q38" s="12">
         <v>11545</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="12">
         <v>12525</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S38" s="12">
         <v>12750</v>
       </c>
-      <c r="T38" s="20">
+      <c r="T38" s="12">
         <v>13670</v>
       </c>
-      <c r="U38" s="20">
+      <c r="U38" s="12">
         <v>17680</v>
       </c>
-      <c r="V38" s="20">
+      <c r="V38" s="12">
         <v>17010</v>
       </c>
     </row>
     <row r="39" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
+      <c r="B39" s="7">
         <v>359</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="9">
         <v>8004</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="9">
         <v>7920</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="9">
         <v>7999</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="9">
         <v>8070</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="9">
         <v>8139</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="9">
         <v>8248</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="9">
         <v>8854</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="9">
         <v>9454</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="9">
         <v>10570</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="9">
         <v>11524</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="9">
         <v>14684</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="10">
         <v>16345</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="11">
         <v>17280</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q39" s="12">
         <v>18555</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="12">
         <v>19385</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="12">
         <v>19980</v>
       </c>
-      <c r="T39" s="20">
+      <c r="T39" s="12">
         <v>20585</v>
       </c>
-      <c r="U39" s="20">
+      <c r="U39" s="12">
         <v>24510</v>
       </c>
-      <c r="V39" s="20">
+      <c r="V39" s="12">
         <v>26610</v>
       </c>
     </row>
     <row r="40" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
+      <c r="B40" s="7">
         <v>360</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="9">
         <v>2786</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="9">
         <v>2742</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="9">
         <v>2695</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="9">
         <v>2550</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="9">
         <v>2527</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="9">
         <v>2555</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="9">
         <v>2563</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="9">
         <v>2634</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="9">
         <v>3031</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="9">
         <v>3588</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="9">
         <v>4184</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="10">
         <v>5020</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="11">
         <v>5335</v>
       </c>
-      <c r="Q40" s="20">
+      <c r="Q40" s="12">
         <v>5605</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="12">
         <v>5765</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S40" s="12">
         <v>6015</v>
       </c>
-      <c r="T40" s="20">
+      <c r="T40" s="12">
         <v>6380</v>
       </c>
-      <c r="U40" s="20">
+      <c r="U40" s="12">
         <v>8190</v>
       </c>
-      <c r="V40" s="20">
+      <c r="V40" s="12">
         <v>8315</v>
       </c>
     </row>
-    <row r="41" spans="2:22" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="15">
+    <row r="41" spans="2:22" s="19" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="7">
         <v>361</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="9">
         <v>6736</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="9">
         <v>6710</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="9">
         <v>6576</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="9">
         <v>6545</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="9">
         <v>6485</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="9">
         <v>6525</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="9">
         <v>6554</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="9">
         <v>6669</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="9">
         <v>7060</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="9">
         <v>7644</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="9">
         <v>9177</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="10">
         <v>10055</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="11">
         <v>10510</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="Q41" s="12">
         <v>10975</v>
       </c>
-      <c r="R41" s="20">
+      <c r="R41" s="12">
         <v>11175</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S41" s="12">
         <v>11465</v>
       </c>
-      <c r="T41" s="20">
+      <c r="T41" s="12">
         <v>12145</v>
       </c>
-      <c r="U41" s="20">
+      <c r="U41" s="12">
         <v>14580</v>
       </c>
-      <c r="V41" s="20">
+      <c r="V41" s="12">
         <v>15210</v>
       </c>
     </row>
-    <row r="42" spans="2:22" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
+    <row r="42" spans="2:22" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
         <v>3</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="14">
         <v>69762</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="14">
         <v>68586</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="14">
         <v>67702</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="14">
         <v>67279</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="14">
         <v>67529</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="14">
         <v>67951</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="14">
         <v>69224</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="14">
         <v>71972</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="14">
         <v>77840</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="14">
         <v>85566</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="14">
         <v>101355</v>
       </c>
-      <c r="O42" s="23">
+      <c r="O42" s="15">
         <v>116020</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="16">
         <v>120060</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q42" s="17">
         <v>126195</v>
       </c>
-      <c r="R42" s="25">
+      <c r="R42" s="17">
         <v>132025</v>
       </c>
-      <c r="S42" s="25">
+      <c r="S42" s="17">
         <v>135635</v>
       </c>
-      <c r="T42" s="25">
+      <c r="T42" s="17">
         <v>142560</v>
       </c>
-      <c r="U42" s="25">
+      <c r="U42" s="17">
         <v>172300</v>
       </c>
-      <c r="V42" s="25">
+      <c r="V42" s="17">
         <v>181275</v>
       </c>
     </row>
     <row r="43" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15">
+      <c r="B43" s="7">
         <v>401</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="9">
         <v>6751</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="9">
         <v>6486</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="9">
         <v>6323</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="9">
         <v>6245</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="9">
         <v>6190</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="9">
         <v>6102</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="9">
         <v>6243</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="9">
         <v>6616</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="9">
         <v>7163</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="9">
         <v>8139</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="9">
         <v>10029</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="10">
         <v>11225</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="11">
         <v>12410</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="Q43" s="12">
         <v>12970</v>
       </c>
-      <c r="R43" s="20">
+      <c r="R43" s="12">
         <v>13220</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="12">
         <v>13710</v>
       </c>
-      <c r="T43" s="20">
+      <c r="T43" s="12">
         <v>14365</v>
       </c>
-      <c r="U43" s="20">
+      <c r="U43" s="12">
         <v>15680</v>
       </c>
-      <c r="V43" s="20">
+      <c r="V43" s="12">
         <v>16860</v>
       </c>
     </row>
     <row r="44" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="B44" s="7">
         <v>402</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="9">
         <v>2783</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="9">
         <v>2664</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="9">
         <v>2663</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="9">
         <v>2585</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="9">
         <v>2360</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="9">
         <v>2454</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="9">
         <v>2487</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="9">
         <v>2784</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="9">
         <v>3219</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="9">
         <v>3641</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="9">
         <v>4576</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="10">
         <v>4955</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P44" s="11">
         <v>5420</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="Q44" s="12">
         <v>5530</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R44" s="12">
         <v>5675</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="12">
         <v>6040</v>
       </c>
-      <c r="T44" s="20">
+      <c r="T44" s="12">
         <v>6105</v>
       </c>
-      <c r="U44" s="20">
+      <c r="U44" s="12">
         <v>7440</v>
       </c>
-      <c r="V44" s="20">
+      <c r="V44" s="12">
         <v>7905</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15">
+      <c r="B45" s="7">
         <v>403</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="9">
         <v>9884</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="9">
         <v>9767</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="9">
         <v>9786</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="9">
         <v>9419</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="9">
         <v>9376</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="9">
         <v>9497</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="9">
         <v>9409</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="9">
         <v>10068</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="9">
         <v>10778</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="9">
         <v>11523</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="9">
         <v>13579</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="10">
         <v>15440</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="11">
         <v>16595</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="Q45" s="12">
         <v>17365</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="12">
         <v>18285</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="12">
         <v>19145</v>
       </c>
-      <c r="T45" s="20">
+      <c r="T45" s="12">
         <v>19760</v>
       </c>
-      <c r="U45" s="20">
+      <c r="U45" s="12">
         <v>22760</v>
       </c>
-      <c r="V45" s="20">
+      <c r="V45" s="12">
         <v>23910</v>
       </c>
     </row>
     <row r="46" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+      <c r="B46" s="7">
         <v>404</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="9">
         <v>15137</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="9">
         <v>14718</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="9">
         <v>14631</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="9">
         <v>14584</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="9">
         <v>14554</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="9">
         <v>14707</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="9">
         <v>15209</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="9">
         <v>15985</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="9">
         <v>16602</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="9">
         <v>17648</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="9">
         <v>19421</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="10">
         <v>22855</v>
       </c>
-      <c r="P46" s="19">
+      <c r="P46" s="11">
         <v>23915</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="Q46" s="12">
         <v>24470</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="12">
         <v>25290</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="12">
         <v>25420</v>
       </c>
-      <c r="T46" s="20">
+      <c r="T46" s="12">
         <v>26045</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U46" s="12">
         <v>29575</v>
       </c>
-      <c r="V46" s="20">
+      <c r="V46" s="12">
         <v>30835</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15">
+      <c r="B47" s="7">
         <v>405</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="9">
         <v>3851</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="9">
         <v>3710</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="9">
         <v>3676</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="9">
         <v>3618</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="9">
         <v>3769</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="9">
         <v>4274</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="9">
         <v>4277</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="9">
         <v>4499</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="9">
         <v>4440</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="9">
         <v>4698</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="9">
         <v>5979</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="10">
         <v>6925</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="11">
         <v>7820</v>
       </c>
-      <c r="Q47" s="20">
+      <c r="Q47" s="12">
         <v>8410</v>
       </c>
-      <c r="R47" s="20">
+      <c r="R47" s="12">
         <v>8785</v>
       </c>
-      <c r="S47" s="20">
+      <c r="S47" s="12">
         <v>8800</v>
       </c>
-      <c r="T47" s="20">
+      <c r="T47" s="12">
         <v>9220</v>
       </c>
-      <c r="U47" s="20">
+      <c r="U47" s="12">
         <v>10835</v>
       </c>
-      <c r="V47" s="20">
+      <c r="V47" s="12">
         <v>11965</v>
       </c>
     </row>
     <row r="48" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15">
+      <c r="B48" s="7">
         <v>451</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="9">
         <v>3288</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="9">
         <v>3324</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="9">
         <v>3375</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="9">
         <v>3362</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="9">
         <v>3447</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="9">
         <v>3546</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="9">
         <v>3749</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="9">
         <v>4282</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="9">
         <v>4463</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="9">
         <v>4953</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="9">
         <v>6084</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O48" s="10">
         <v>7130</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P48" s="11">
         <v>7600</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="Q48" s="12">
         <v>8075</v>
       </c>
-      <c r="R48" s="20">
+      <c r="R48" s="12">
         <v>8525</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S48" s="12">
         <v>8735</v>
       </c>
-      <c r="T48" s="20">
+      <c r="T48" s="12">
         <v>8700</v>
       </c>
-      <c r="U48" s="20">
+      <c r="U48" s="12">
         <v>10735</v>
       </c>
-      <c r="V48" s="20">
+      <c r="V48" s="12">
         <v>11550</v>
       </c>
     </row>
     <row r="49" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15">
+      <c r="B49" s="7">
         <v>452</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="9">
         <v>5338</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="9">
         <v>5511</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="9">
         <v>5487</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="9">
         <v>5158</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="9">
         <v>5110</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="9">
         <v>5350</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="9">
         <v>5469</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="9">
         <v>5736</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="9">
         <v>6589</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="9">
         <v>7903</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="9">
         <v>9789</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="10">
         <v>11055</v>
       </c>
-      <c r="P49" s="19">
+      <c r="P49" s="11">
         <v>11200</v>
       </c>
-      <c r="Q49" s="20">
+      <c r="Q49" s="12">
         <v>11515</v>
       </c>
-      <c r="R49" s="20">
+      <c r="R49" s="12">
         <v>11480</v>
       </c>
-      <c r="S49" s="20">
+      <c r="S49" s="12">
         <v>11465</v>
       </c>
-      <c r="T49" s="20">
+      <c r="T49" s="12">
         <v>11805</v>
       </c>
-      <c r="U49" s="20">
+      <c r="U49" s="12">
         <v>14140</v>
       </c>
-      <c r="V49" s="20">
+      <c r="V49" s="12">
         <v>15545</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+      <c r="B50" s="7">
         <v>453</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="9">
         <v>6341</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="9">
         <v>6549</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="9">
         <v>6898</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="9">
         <v>7296</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="9">
         <v>7715</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="9">
         <v>8442</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="9">
         <v>9052</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="9">
         <v>10700</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="9">
         <v>11292</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="9">
         <v>12969</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="9">
         <v>14893</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="10">
         <v>17345</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P50" s="11">
         <v>17050</v>
       </c>
-      <c r="Q50" s="20">
+      <c r="Q50" s="12">
         <v>18915</v>
       </c>
-      <c r="R50" s="20">
+      <c r="R50" s="12">
         <v>18890</v>
       </c>
-      <c r="S50" s="20">
+      <c r="S50" s="12">
         <v>20565</v>
       </c>
-      <c r="T50" s="20">
+      <c r="T50" s="12">
         <v>22630</v>
       </c>
-      <c r="U50" s="20">
+      <c r="U50" s="12">
         <v>25005</v>
       </c>
-      <c r="V50" s="20">
+      <c r="V50" s="12">
         <v>27370</v>
       </c>
     </row>
     <row r="51" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+      <c r="B51" s="7">
         <v>454</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="9">
         <v>12579</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="9">
         <v>14186</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="9">
         <v>15526</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="9">
         <v>16357</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="9">
         <v>16744</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="9">
         <v>17640</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="9">
         <v>19224</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="9">
         <v>21112</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="9">
         <v>22649</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="9">
         <v>25259</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="9">
         <v>30225</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="10">
         <v>34110</v>
       </c>
-      <c r="P51" s="19">
+      <c r="P51" s="11">
         <v>36430</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51" s="12">
         <v>38825</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R51" s="12">
         <v>40430</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S51" s="12">
         <v>41090</v>
       </c>
-      <c r="T51" s="20">
+      <c r="T51" s="12">
         <v>42740</v>
       </c>
-      <c r="U51" s="20">
+      <c r="U51" s="12">
         <v>48710</v>
       </c>
-      <c r="V51" s="20">
+      <c r="V51" s="12">
         <v>51305</v>
       </c>
     </row>
     <row r="52" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15">
+      <c r="B52" s="7">
         <v>455</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="9">
         <v>2756</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="9">
         <v>2750</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="9">
         <v>2732</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="9">
         <v>2655</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="9">
         <v>2682</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="9">
         <v>2609</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="9">
         <v>2735</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="9">
         <v>2687</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="9">
         <v>2817</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="9">
         <v>3078</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="9">
         <v>3977</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="10">
         <v>4745</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P52" s="11">
         <v>4770</v>
       </c>
-      <c r="Q52" s="20">
+      <c r="Q52" s="12">
         <v>4830</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="12">
         <v>4840</v>
       </c>
-      <c r="S52" s="20">
+      <c r="S52" s="12">
         <v>4905</v>
       </c>
-      <c r="T52" s="20">
+      <c r="T52" s="12">
         <v>5110</v>
       </c>
-      <c r="U52" s="20">
+      <c r="U52" s="12">
         <v>6450</v>
       </c>
-      <c r="V52" s="20">
+      <c r="V52" s="12">
         <v>6815</v>
       </c>
     </row>
     <row r="53" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15">
+      <c r="B53" s="7">
         <v>456</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="9">
         <v>13305</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="9">
         <v>14052</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="9">
         <v>14593</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="9">
         <v>15398</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="9">
         <v>15678</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="9">
         <v>15786</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="9">
         <v>16218</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="9">
         <v>16768</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="9">
         <v>17303</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="9">
         <v>18091</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="9">
         <v>19829</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O53" s="10">
         <v>21015</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="11">
         <v>21140</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="Q53" s="12">
         <v>21550</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R53" s="12">
         <v>22030</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S53" s="12">
         <v>22410</v>
       </c>
-      <c r="T53" s="20">
+      <c r="T53" s="12">
         <v>23650</v>
       </c>
-      <c r="U53" s="20">
+      <c r="U53" s="12">
         <v>26365</v>
       </c>
-      <c r="V53" s="20">
+      <c r="V53" s="12">
         <v>26620</v>
       </c>
     </row>
     <row r="54" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15">
+      <c r="B54" s="7">
         <v>457</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="9">
         <v>6519</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="9">
         <v>6700</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="9">
         <v>7060</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="9">
         <v>7139</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="9">
         <v>6974</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="9">
         <v>7130</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="9">
         <v>7472</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="9">
         <v>7867</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="9">
         <v>8388</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="9">
         <v>9314</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="9">
         <v>10851</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54" s="10">
         <v>12320</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P54" s="11">
         <v>12705</v>
       </c>
-      <c r="Q54" s="20">
+      <c r="Q54" s="12">
         <v>13610</v>
       </c>
-      <c r="R54" s="20">
+      <c r="R54" s="12">
         <v>14855</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="12">
         <v>15200</v>
       </c>
-      <c r="T54" s="20">
+      <c r="T54" s="12">
         <v>15790</v>
       </c>
-      <c r="U54" s="20">
+      <c r="U54" s="12">
         <v>18385</v>
       </c>
-      <c r="V54" s="20">
+      <c r="V54" s="12">
         <v>19135</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
+      <c r="B55" s="7">
         <v>458</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="9">
         <v>4295</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="9">
         <v>4397</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="9">
         <v>4428</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="9">
         <v>4430</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="9">
         <v>4796</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="9">
         <v>5240</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="9">
         <v>5793</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="9">
         <v>6328</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="9">
         <v>7080</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="9">
         <v>7810</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="9">
         <v>9373</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O55" s="10">
         <v>10860</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P55" s="11">
         <v>11375</v>
       </c>
-      <c r="Q55" s="20">
+      <c r="Q55" s="12">
         <v>11595</v>
       </c>
-      <c r="R55" s="20">
+      <c r="R55" s="12">
         <v>12525</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S55" s="12">
         <v>12850</v>
       </c>
-      <c r="T55" s="20">
+      <c r="T55" s="12">
         <v>13260</v>
       </c>
-      <c r="U55" s="20">
+      <c r="U55" s="12">
         <v>14785</v>
       </c>
-      <c r="V55" s="20">
+      <c r="V55" s="12">
         <v>15505</v>
       </c>
     </row>
     <row r="56" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="15">
+      <c r="B56" s="7">
         <v>459</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="9">
         <v>16305</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="9">
         <v>16323</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="9">
         <v>16856</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="9">
         <v>17266</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="9">
         <v>17369</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="9">
         <v>17592</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="9">
         <v>18422</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="9">
         <v>19312</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="9">
         <v>20549</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="9">
         <v>22034</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="9">
         <v>24667</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56" s="10">
         <v>29000</v>
       </c>
-      <c r="P56" s="19">
+      <c r="P56" s="11">
         <v>30930</v>
       </c>
-      <c r="Q56" s="20">
+      <c r="Q56" s="12">
         <v>32625</v>
       </c>
-      <c r="R56" s="20">
+      <c r="R56" s="12">
         <v>33445</v>
       </c>
-      <c r="S56" s="20">
+      <c r="S56" s="12">
         <v>34995</v>
       </c>
-      <c r="T56" s="20">
+      <c r="T56" s="12">
         <v>35350</v>
       </c>
-      <c r="U56" s="20">
+      <c r="U56" s="12">
         <v>41195</v>
       </c>
-      <c r="V56" s="20">
+      <c r="V56" s="12">
         <v>42530</v>
       </c>
     </row>
     <row r="57" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15">
+      <c r="B57" s="7">
         <v>460</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="9">
         <v>8901</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="9">
         <v>8932</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="9">
         <v>8945</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="9">
         <v>9034</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="9">
         <v>9364</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="9">
         <v>9897</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="9">
         <v>10724</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="9">
         <v>11183</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="9">
         <v>11803</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="9">
         <v>13386</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="9">
         <v>15697</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O57" s="10">
         <v>17665</v>
       </c>
-      <c r="P57" s="19">
+      <c r="P57" s="11">
         <v>18640</v>
       </c>
-      <c r="Q57" s="20">
+      <c r="Q57" s="12">
         <v>19790</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="12">
         <v>20715</v>
       </c>
-      <c r="S57" s="20">
+      <c r="S57" s="12">
         <v>21370</v>
       </c>
-      <c r="T57" s="20">
+      <c r="T57" s="12">
         <v>22130</v>
       </c>
-      <c r="U57" s="20">
+      <c r="U57" s="12">
         <v>24500</v>
       </c>
-      <c r="V57" s="20">
+      <c r="V57" s="12">
         <v>25165</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15">
+      <c r="B58" s="7">
         <v>461</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="9">
         <v>5233</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="9">
         <v>5295</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="9">
         <v>5168</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="9">
         <v>5077</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="9">
         <v>4960</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="9">
         <v>4763</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="9">
         <v>4679</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="9">
         <v>4669</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="9">
         <v>4943</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="9">
         <v>5280</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="9">
         <v>6429</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58" s="10">
         <v>7260</v>
       </c>
-      <c r="P58" s="19">
+      <c r="P58" s="11">
         <v>7325</v>
       </c>
-      <c r="Q58" s="20">
+      <c r="Q58" s="12">
         <v>7455</v>
       </c>
-      <c r="R58" s="20">
+      <c r="R58" s="12">
         <v>7780</v>
       </c>
-      <c r="S58" s="20">
+      <c r="S58" s="12">
         <v>7820</v>
       </c>
-      <c r="T58" s="20">
+      <c r="T58" s="12">
         <v>7975</v>
       </c>
-      <c r="U58" s="20">
+      <c r="U58" s="12">
         <v>9565</v>
       </c>
-      <c r="V58" s="20">
+      <c r="V58" s="12">
         <v>10155</v>
       </c>
     </row>
-    <row r="59" spans="2:22" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="15">
+    <row r="59" spans="2:22" s="19" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="7">
         <v>462</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="9">
         <v>1327</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="9">
         <v>1262</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="9">
         <v>1242</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="9">
         <v>1235</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="9">
         <v>1231</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="9">
         <v>1306</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="9">
         <v>1409</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="9">
         <v>1446</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="9">
         <v>1651</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="9">
         <v>1965</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="9">
         <v>2558</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O59" s="10">
         <v>2560</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P59" s="11">
         <v>2595</v>
       </c>
-      <c r="Q59" s="20">
+      <c r="Q59" s="12">
         <v>2675</v>
       </c>
-      <c r="R59" s="20">
+      <c r="R59" s="12">
         <v>2745</v>
       </c>
-      <c r="S59" s="20">
+      <c r="S59" s="12">
         <v>2915</v>
       </c>
-      <c r="T59" s="20">
+      <c r="T59" s="12">
         <v>3085</v>
       </c>
-      <c r="U59" s="20">
+      <c r="U59" s="12">
         <v>4250</v>
       </c>
-      <c r="V59" s="20">
+      <c r="V59" s="12">
         <v>4535</v>
       </c>
     </row>
-    <row r="60" spans="2:22" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15">
+    <row r="60" spans="2:22" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="7">
         <v>4</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="14">
         <v>124593</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="14">
         <v>126626</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="14">
         <v>129389</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="14">
         <v>130858</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="14">
         <v>132319</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="14">
         <v>136335</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="14">
         <v>142571</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="14">
         <v>152042</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L60" s="14">
         <v>161729</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="14">
         <v>177691</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N60" s="14">
         <v>207956</v>
       </c>
-      <c r="O60" s="23">
+      <c r="O60" s="15">
         <v>236470</v>
       </c>
-      <c r="P60" s="24">
+      <c r="P60" s="16">
         <v>247925</v>
       </c>
-      <c r="Q60" s="25">
+      <c r="Q60" s="17">
         <v>260205</v>
       </c>
-      <c r="R60" s="25">
+      <c r="R60" s="17">
         <v>269505</v>
       </c>
-      <c r="S60" s="25">
+      <c r="S60" s="17">
         <v>277435</v>
       </c>
-      <c r="T60" s="25">
+      <c r="T60" s="17">
         <v>287715</v>
       </c>
-      <c r="U60" s="25">
+      <c r="U60" s="17">
         <v>330380</v>
       </c>
-      <c r="V60" s="25">
+      <c r="V60" s="17">
         <v>347710</v>
       </c>
     </row>
-    <row r="61" spans="2:22" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15">
+    <row r="61" spans="2:22" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="7">
         <v>0</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="14">
         <v>461486</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="14">
         <v>458757</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="14">
         <v>457099</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="14">
         <v>453141</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="14">
         <v>453636</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="14">
         <v>458153</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="14">
         <v>470683</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="14">
         <v>492072</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61" s="14">
         <v>525689</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="14">
         <v>570988</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="14">
         <v>663817</v>
       </c>
-      <c r="O61" s="23">
+      <c r="O61" s="15">
         <v>745185</v>
       </c>
-      <c r="P61" s="24">
+      <c r="P61" s="16">
         <v>776860</v>
       </c>
-      <c r="Q61" s="25">
+      <c r="Q61" s="17">
         <v>813080</v>
       </c>
-      <c r="R61" s="25">
+      <c r="R61" s="17">
         <v>841165</v>
       </c>
-      <c r="S61" s="25">
+      <c r="S61" s="17">
         <v>857895</v>
       </c>
-      <c r="T61" s="25">
+      <c r="T61" s="17">
         <v>895490</v>
       </c>
-      <c r="U61" s="25">
+      <c r="U61" s="17">
         <v>1045140</v>
       </c>
-      <c r="V61" s="25">
+      <c r="V61" s="17">
         <v>1085315</v>
       </c>
     </row>
-    <row r="62" spans="2:22" s="26" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-    </row>
-    <row r="63" spans="2:22" s="33" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="34" t="s">
+    <row r="62" spans="2:22" s="18" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+    </row>
+    <row r="63" spans="2:22" s="25" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-    </row>
-    <row r="64" spans="2:22" s="33" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+    </row>
+    <row r="64" spans="2:22" s="25" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
     </row>
     <row r="65" spans="3:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
     </row>
     <row r="67" spans="3:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
     </row>
     <row r="68" spans="3:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
     </row>
     <row r="69" spans="3:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
     </row>
     <row r="70" spans="3:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
